--- a/biology/Zoologie/Granulifusus_martinorum/Granulifusus_martinorum.xlsx
+++ b/biology/Zoologie/Granulifusus_martinorum/Granulifusus_martinorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Granulifusus martinorum est une espèce d'escargots de mer de la famille des Fasciolariidae originaire des Philippines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granulifusus martinorum est une espèce d'escargots de mer de la famille des Fasciolariidae originaire des Philippines.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Granulifusus martinorum a été décrite en 1987 par le malacologiste tchèque Walter Olivier Cernohorsky (d) (1927-2014) sous le protonyme Latirus martinorum[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Granulifusus martinorum a été décrite en 1987 par le malacologiste tchèque Walter Olivier Cernohorsky (d) (1927-2014) sous le protonyme Latirus martinorum,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille des coquilles de cette espèce varie de 14 à 20 mm.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit le long des côtes des Philippines.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, martinorum, lui a été donnée en l'honneur de Monsieur et Madame R. Martin de Cebu qui ont découvert cette espèce, ainsi que d'autres, dans la province de Bohol[2].    
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, martinorum, lui a été donnée en l'honneur de Monsieur et Madame R. Martin de Cebu qui ont découvert cette espèce, ainsi que d'autres, dans la province de Bohol.    
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Cernohorsky, W. O., « The Taxonomy of some Indo-Pacific Mollusca: Part 14. With Descriptions of two New Species », Records of the Auckland Institute and Museum, Auckland, Auckland Institute and Museum (d), vol. 24,‎ 1987, p. 107-122 (ISSN 0067-0464, OCLC 2445118, JSTOR 42906367, lire en ligne)</t>
         </is>
